--- a/data/datasets/MENISCOS_FILTRADO.xlsx
+++ b/data/datasets/MENISCOS_FILTRADO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\UNIVERSIDAD\4\TFG\codigo\knee_ai\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A4493D-439C-4AB6-B76C-9A5BD7E431C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E65203-F4FD-4B62-B30F-B82666898184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{588D0ACA-9254-4B6C-BD85-DCE860A22B88}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{588D0ACA-9254-4B6C-BD85-DCE860A22B88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1974,18 +1985,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBD3B22-DC8B-4A59-AA38-748983E053DE}">
-  <dimension ref="A1:BS165"/>
+  <dimension ref="A1:BS168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+    <sheetView tabSelected="1" topLeftCell="AM53" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="1" max="63" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26437,6 +26448,22 @@
         <v>401</v>
       </c>
       <c r="BM165" s="21"/>
+    </row>
+    <row r="166" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <f>MAX(C2:C165)</f>
+        <v>76</v>
+      </c>
+      <c r="AD166">
+        <f>MAX(AD2:AD164)</f>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="M168">
+        <f>MAX(M2:M165)</f>
+        <v>37.1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
